--- a/biology/Médecine/Raymond_Restaurand/Raymond_Restaurand.xlsx
+++ b/biology/Médecine/Raymond_Restaurand/Raymond_Restaurand.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Raymond Restaurand, né en 1627 à Pont-Saint-Esprit et mort en 1682, est un médecin français.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se fit recevoir docteur en médecine à Montpellier et exerça à Nîmes. Il fut un des premiers en France à professer la doctrine de la circulation du sang et publia à ce sujet en 1681 un traité : Magnus Hippocrates Cous redivivus. S'appuyant surtout sur Hippocrate, il préconise le vin et l'eau à la glace pour le traitement des fièvres malignes.
 </t>
@@ -542,18 +556,20 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Figulus ; exercitatio medica de principiis fœtus, auctore Raymondo Restaurand,... Arausione : apud E. Rabanum, 1657. in-8 ̊, IV-28 p ;
 Monarchia microcosmi, Hippocratis magni, Platonis et Aristotelis insperato foedere restituta, in tres partes divisa, quarum prima commentarium continet in Hippocratis magni librum de corde ; altera, in varios textus ex libro primo de victus ratione, ejusdem authoris ; tertia, Divini Platonis mentem, ex ejus Timaeo depromptam... Quibus, prostata triplicis spiritus tyrannide, et sanguinis circulatione, animantis cor, supremo... imperio redintegratur..., 1657. 3 parties en 1 vol. in-4 ;
 Responsum figuli ad lutosas figulo-figuli animadversiones, seu Exercitatio medica de natura fœtus, ad veram Hippocratis, Platonis, et Aristotelis mentem. Arausioni : excudebat E. Rabanus, 1658. in-8 ̊, V-67 p ;
-Exercitatio medica de usu vini emetici in curatione febrium malignarum ad mentem Hippocratis. Adjuncta est Oeconomia physiologicorum Hippocratis. Parisiis : apud J. Dupuis, 1662. 2 parties en 1 vol. in-8 ̊[1] ;
+Exercitatio medica de usu vini emetici in curatione febrium malignarum ad mentem Hippocratis. Adjuncta est Oeconomia physiologicorum Hippocratis. Parisiis : apud J. Dupuis, 1662. 2 parties en 1 vol. in-8 ̊ ;
 Hippocrates : de natura lactis et de usu in curationibus morborum. Arausioni : typis Celsitudinis suae et universitatis, 1667 ;
-Hippocrate de l'usage du boire à la glace, pour la conservation de la santé. Lyon : G. Nanty, 1670[2] ;
+Hippocrate de l'usage du boire à la glace, pour la conservation de la santé. Lyon : G. Nanty, 1670 ;
 Le sentiment d'Hippocrate touchant la circulation du corps humain, conforme à celui de Platon, d'Aristote et aux expériences. Lyon, 1675 ;
 Harveus de motu sanguinis in animalibus experientiis deceptus et erroris convictus. Avenione : typ. P. Offray, 1677 ;
-Hippocrate : de l'usage du China-China, pour la guérison des fièvres, Lyon, E. Vitalis, 1681, 135 p., In-12°, pièces limin.[3] ;
-Hippocrates : de inustionibus, sive fonticulis... autore Raymundo Restaurant... Adjuncta est Oeconomia physiologicorum Hippocratis redivivi. Lugduni : apud S. Vitalis, 1681[4] ;
+Hippocrate : de l'usage du China-China, pour la guérison des fièvres, Lyon, E. Vitalis, 1681, 135 p., In-12°, pièces limin. ;
+Hippocrates : de inustionibus, sive fonticulis... autore Raymundo Restaurant... Adjuncta est Oeconomia physiologicorum Hippocratis redivivi. Lugduni : apud S. Vitalis, 1681 ;
 Magnus Hippocrates cous redivivus. 1681.</t>
         </is>
       </c>
